--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Adam23-Itga4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Adam23-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,13 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -92,9 +98,6 @@
   </si>
   <si>
     <t>Itga4</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>14.1677510963009</v>
+        <v>0.03428566666666667</v>
       </c>
       <c r="H2">
-        <v>14.1677510963009</v>
+        <v>0.102857</v>
       </c>
       <c r="I2">
-        <v>0.7768495068152008</v>
+        <v>0.001795213220862138</v>
       </c>
       <c r="J2">
-        <v>0.7768495068152008</v>
+        <v>0.001795213220862138</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>56.3701066069701</v>
+        <v>0.09679866666666666</v>
       </c>
       <c r="N2">
-        <v>56.3701066069701</v>
+        <v>0.290396</v>
       </c>
       <c r="O2">
-        <v>0.2851589293462984</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="P2">
-        <v>0.2851589293462984</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="Q2">
-        <v>798.6376396794992</v>
+        <v>0.003318806819111111</v>
       </c>
       <c r="R2">
-        <v>798.6376396794992</v>
+        <v>0.029869261372</v>
       </c>
       <c r="S2">
-        <v>0.2215255736266226</v>
+        <v>8.340653808141165E-07</v>
       </c>
       <c r="T2">
-        <v>0.2215255736266226</v>
+        <v>8.340653808141165E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>14.1677510963009</v>
+        <v>0.03428566666666667</v>
       </c>
       <c r="H3">
-        <v>14.1677510963009</v>
+        <v>0.102857</v>
       </c>
       <c r="I3">
-        <v>0.7768495068152008</v>
+        <v>0.001795213220862138</v>
       </c>
       <c r="J3">
-        <v>0.7768495068152008</v>
+        <v>0.001795213220862138</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>79.5803306052761</v>
+        <v>0.04442266666666667</v>
       </c>
       <c r="N3">
-        <v>79.5803306052761</v>
+        <v>0.133268</v>
       </c>
       <c r="O3">
-        <v>0.4025722716944274</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="P3">
-        <v>0.4025722716944274</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="Q3">
-        <v>1127.474316176889</v>
+        <v>0.001523060741777778</v>
       </c>
       <c r="R3">
-        <v>1127.474316176889</v>
+        <v>0.013707546676</v>
       </c>
       <c r="S3">
-        <v>0.312738070723291</v>
+        <v>3.827677556520602E-07</v>
       </c>
       <c r="T3">
-        <v>0.312738070723291</v>
+        <v>3.827677556520602E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>14.1677510963009</v>
+        <v>0.03428566666666667</v>
       </c>
       <c r="H4">
-        <v>14.1677510963009</v>
+        <v>0.102857</v>
       </c>
       <c r="I4">
-        <v>0.7768495068152008</v>
+        <v>0.001795213220862138</v>
       </c>
       <c r="J4">
-        <v>0.7768495068152008</v>
+        <v>0.001795213220862138</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>60.3693758823782</v>
+        <v>60.95749799999999</v>
       </c>
       <c r="N4">
-        <v>60.3693758823782</v>
+        <v>182.872494</v>
       </c>
       <c r="O4">
-        <v>0.3053899953028406</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="P4">
-        <v>0.3053899953028406</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="Q4">
-        <v>855.2982913405649</v>
+        <v>2.089968457262</v>
       </c>
       <c r="R4">
-        <v>855.2982913405649</v>
+        <v>18.809716115358</v>
       </c>
       <c r="S4">
-        <v>0.2372420672373082</v>
+        <v>0.0005252400733775163</v>
       </c>
       <c r="T4">
-        <v>0.2372420672373082</v>
+        <v>0.0005252400733775163</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>14.1677510963009</v>
+        <v>0.03428566666666667</v>
       </c>
       <c r="H5">
-        <v>14.1677510963009</v>
+        <v>0.102857</v>
       </c>
       <c r="I5">
-        <v>0.7768495068152008</v>
+        <v>0.001795213220862138</v>
       </c>
       <c r="J5">
-        <v>0.7768495068152008</v>
+        <v>0.001795213220862138</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.35979924013071</v>
+        <v>82.22364800000001</v>
       </c>
       <c r="N5">
-        <v>1.35979924013071</v>
+        <v>246.670944</v>
       </c>
       <c r="O5">
-        <v>0.006878803656433702</v>
+        <v>0.3946493786955111</v>
       </c>
       <c r="P5">
-        <v>0.006878803656433702</v>
+        <v>0.394649378695511</v>
       </c>
       <c r="Q5">
-        <v>19.265297175111</v>
+        <v>2.819092587445334</v>
       </c>
       <c r="R5">
-        <v>19.265297175111</v>
+        <v>25.371833287008</v>
       </c>
       <c r="S5">
-        <v>0.005343795227979121</v>
+        <v>0.00070847978223921</v>
       </c>
       <c r="T5">
-        <v>0.005343795227979121</v>
+        <v>0.00070847978223921</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.492431121557833</v>
+        <v>0.03428566666666667</v>
       </c>
       <c r="H6">
-        <v>0.492431121557833</v>
+        <v>0.102857</v>
       </c>
       <c r="I6">
-        <v>0.02700110069145261</v>
+        <v>0.001795213220862138</v>
       </c>
       <c r="J6">
-        <v>0.02700110069145261</v>
+        <v>0.001795213220862138</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>56.3701066069701</v>
+        <v>63.39570733333333</v>
       </c>
       <c r="N6">
-        <v>56.3701066069701</v>
+        <v>190.187122</v>
       </c>
       <c r="O6">
-        <v>0.2851589293462984</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="P6">
-        <v>0.2851589293462984</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="Q6">
-        <v>27.7583948188049</v>
+        <v>2.173564089728222</v>
       </c>
       <c r="R6">
-        <v>27.7583948188049</v>
+        <v>19.562076807554</v>
       </c>
       <c r="S6">
-        <v>0.007699604964346225</v>
+        <v>0.0005462488957729129</v>
       </c>
       <c r="T6">
-        <v>0.007699604964346225</v>
+        <v>0.0005462488957729129</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.492431121557833</v>
+        <v>0.03428566666666667</v>
       </c>
       <c r="H7">
-        <v>0.492431121557833</v>
+        <v>0.102857</v>
       </c>
       <c r="I7">
-        <v>0.02700110069145261</v>
+        <v>0.001795213220862138</v>
       </c>
       <c r="J7">
-        <v>0.02700110069145261</v>
+        <v>0.001795213220862138</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.5803306052761</v>
+        <v>1.627997666666667</v>
       </c>
       <c r="N7">
-        <v>79.5803306052761</v>
+        <v>4.883993</v>
       </c>
       <c r="O7">
-        <v>0.4025722716944274</v>
+        <v>0.007813911001221226</v>
       </c>
       <c r="P7">
-        <v>0.4025722716944274</v>
+        <v>0.007813911001221226</v>
       </c>
       <c r="Q7">
-        <v>39.18783145389925</v>
+        <v>0.05581698533344445</v>
       </c>
       <c r="R7">
-        <v>39.18783145389925</v>
+        <v>0.5023528680010001</v>
       </c>
       <c r="S7">
-        <v>0.01086989444360805</v>
+        <v>1.402763633603245E-05</v>
       </c>
       <c r="T7">
-        <v>0.01086989444360805</v>
+        <v>1.402763633603245E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.492431121557833</v>
+        <v>14.57672866666667</v>
       </c>
       <c r="H8">
-        <v>0.492431121557833</v>
+        <v>43.730186</v>
       </c>
       <c r="I8">
-        <v>0.02700110069145261</v>
+        <v>0.7632441939582174</v>
       </c>
       <c r="J8">
-        <v>0.02700110069145261</v>
+        <v>0.7632441939582175</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>60.3693758823782</v>
+        <v>0.09679866666666666</v>
       </c>
       <c r="N8">
-        <v>60.3693758823782</v>
+        <v>0.290396</v>
       </c>
       <c r="O8">
-        <v>0.3053899953028406</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="P8">
-        <v>0.3053899953028406</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="Q8">
-        <v>29.72775947350589</v>
+        <v>1.411007899295111</v>
       </c>
       <c r="R8">
-        <v>29.72775947350589</v>
+        <v>12.699071093656</v>
       </c>
       <c r="S8">
-        <v>0.008245866013334237</v>
+        <v>0.0003546072142796518</v>
       </c>
       <c r="T8">
-        <v>0.008245866013334237</v>
+        <v>0.0003546072142796518</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,382 +962,382 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.492431121557833</v>
+        <v>14.57672866666667</v>
       </c>
       <c r="H9">
-        <v>0.492431121557833</v>
+        <v>43.730186</v>
       </c>
       <c r="I9">
-        <v>0.02700110069145261</v>
+        <v>0.7632441939582174</v>
       </c>
       <c r="J9">
-        <v>0.02700110069145261</v>
+        <v>0.7632441939582175</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.35979924013071</v>
+        <v>0.04442266666666667</v>
       </c>
       <c r="N9">
-        <v>1.35979924013071</v>
+        <v>0.133268</v>
       </c>
       <c r="O9">
-        <v>0.006878803656433702</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="P9">
-        <v>0.006878803656433702</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="Q9">
-        <v>0.6696074649110545</v>
+        <v>0.6475371586497778</v>
       </c>
       <c r="R9">
-        <v>0.6696074649110545</v>
+        <v>5.827834427848001</v>
       </c>
       <c r="S9">
-        <v>0.0001857352701640988</v>
+        <v>0.0001627356927527261</v>
       </c>
       <c r="T9">
-        <v>0.0001857352701640988</v>
+        <v>0.0001627356927527261</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.0534272204775867</v>
+        <v>14.57672866666667</v>
       </c>
       <c r="H10">
-        <v>0.0534272204775867</v>
+        <v>43.730186</v>
       </c>
       <c r="I10">
-        <v>0.002929534094465907</v>
+        <v>0.7632441939582174</v>
       </c>
       <c r="J10">
-        <v>0.002929534094465907</v>
+        <v>0.7632441939582175</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>56.3701066069701</v>
+        <v>60.95749799999999</v>
       </c>
       <c r="N10">
-        <v>56.3701066069701</v>
+        <v>182.872494</v>
       </c>
       <c r="O10">
-        <v>0.2851589293462984</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="P10">
-        <v>0.2851589293462984</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="Q10">
-        <v>3.011698114035658</v>
+        <v>888.5609085448759</v>
       </c>
       <c r="R10">
-        <v>3.011698114035658</v>
+        <v>7997.048176903884</v>
       </c>
       <c r="S10">
-        <v>0.000835382805861376</v>
+        <v>0.2233085361565322</v>
       </c>
       <c r="T10">
-        <v>0.000835382805861376</v>
+        <v>0.2233085361565323</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.0534272204775867</v>
+        <v>14.57672866666667</v>
       </c>
       <c r="H11">
-        <v>0.0534272204775867</v>
+        <v>43.730186</v>
       </c>
       <c r="I11">
-        <v>0.002929534094465907</v>
+        <v>0.7632441939582174</v>
       </c>
       <c r="J11">
-        <v>0.002929534094465907</v>
+        <v>0.7632441939582175</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>79.5803306052761</v>
+        <v>82.22364800000001</v>
       </c>
       <c r="N11">
-        <v>79.5803306052761</v>
+        <v>246.670944</v>
       </c>
       <c r="O11">
-        <v>0.4025722716944274</v>
+        <v>0.3946493786955111</v>
       </c>
       <c r="P11">
-        <v>0.4025722716944274</v>
+        <v>0.394649378695511</v>
       </c>
       <c r="Q11">
-        <v>4.251755868927327</v>
+        <v>1198.55180687951</v>
       </c>
       <c r="R11">
-        <v>4.251755868927327</v>
+        <v>10786.96626191559</v>
       </c>
       <c r="S11">
-        <v>0.001179349195415417</v>
+        <v>0.3012138469385667</v>
       </c>
       <c r="T11">
-        <v>0.001179349195415417</v>
+        <v>0.3012138469385667</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.0534272204775867</v>
+        <v>14.57672866666667</v>
       </c>
       <c r="H12">
-        <v>0.0534272204775867</v>
+        <v>43.730186</v>
       </c>
       <c r="I12">
-        <v>0.002929534094465907</v>
+        <v>0.7632441939582174</v>
       </c>
       <c r="J12">
-        <v>0.002929534094465907</v>
+        <v>0.7632441939582175</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>60.3693758823782</v>
+        <v>63.39570733333333</v>
       </c>
       <c r="N12">
-        <v>60.3693758823782</v>
+        <v>190.187122</v>
       </c>
       <c r="O12">
-        <v>0.3053899953028406</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="P12">
-        <v>0.3053899953028406</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="Q12">
-        <v>3.225367955362125</v>
+        <v>924.1020244294102</v>
       </c>
       <c r="R12">
-        <v>3.225367955362125</v>
+        <v>8316.918219864692</v>
       </c>
       <c r="S12">
-        <v>0.0008946504033484546</v>
+        <v>0.2322405457522978</v>
       </c>
       <c r="T12">
-        <v>0.0008946504033484546</v>
+        <v>0.2322405457522978</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.0534272204775867</v>
+        <v>14.57672866666667</v>
       </c>
       <c r="H13">
-        <v>0.0534272204775867</v>
+        <v>43.730186</v>
       </c>
       <c r="I13">
-        <v>0.002929534094465907</v>
+        <v>0.7632441939582174</v>
       </c>
       <c r="J13">
-        <v>0.002929534094465907</v>
+        <v>0.7632441939582175</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.35979924013071</v>
+        <v>1.627997666666667</v>
       </c>
       <c r="N13">
-        <v>1.35979924013071</v>
+        <v>4.883993</v>
       </c>
       <c r="O13">
-        <v>0.006878803656433702</v>
+        <v>0.007813911001221226</v>
       </c>
       <c r="P13">
-        <v>0.006878803656433702</v>
+        <v>0.007813911001221226</v>
       </c>
       <c r="Q13">
-        <v>0.0726502938077183</v>
+        <v>23.73088025696645</v>
       </c>
       <c r="R13">
-        <v>0.0726502938077183</v>
+        <v>213.577922312698</v>
       </c>
       <c r="S13">
-        <v>2.015168984065927E-05</v>
+        <v>0.005963922203788342</v>
       </c>
       <c r="T13">
-        <v>2.015168984065927E-05</v>
+        <v>0.005963922203788343</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>3.52383677487363</v>
+        <v>0.005527333333333333</v>
       </c>
       <c r="H14">
-        <v>3.52383677487363</v>
+        <v>0.016582</v>
       </c>
       <c r="I14">
-        <v>0.1932198583988807</v>
+        <v>0.0002894137066834145</v>
       </c>
       <c r="J14">
-        <v>0.1932198583988807</v>
+        <v>0.0002894137066834146</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>56.3701066069701</v>
+        <v>0.09679866666666666</v>
       </c>
       <c r="N14">
-        <v>56.3701066069701</v>
+        <v>0.290396</v>
       </c>
       <c r="O14">
-        <v>0.2851589293462984</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="P14">
-        <v>0.2851589293462984</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="Q14">
-        <v>198.6390546651882</v>
+        <v>0.0005350384968888888</v>
       </c>
       <c r="R14">
-        <v>198.6390546651882</v>
+        <v>0.004815346472</v>
       </c>
       <c r="S14">
-        <v>0.05509836794946822</v>
+        <v>1.344631103829557E-07</v>
       </c>
       <c r="T14">
-        <v>0.05509836794946822</v>
+        <v>1.344631103829558E-07</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1343,60 +1346,60 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>3.52383677487363</v>
+        <v>0.005527333333333333</v>
       </c>
       <c r="H15">
-        <v>3.52383677487363</v>
+        <v>0.016582</v>
       </c>
       <c r="I15">
-        <v>0.1932198583988807</v>
+        <v>0.0002894137066834145</v>
       </c>
       <c r="J15">
-        <v>0.1932198583988807</v>
+        <v>0.0002894137066834146</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>79.5803306052761</v>
+        <v>0.04442266666666667</v>
       </c>
       <c r="N15">
-        <v>79.5803306052761</v>
+        <v>0.133268</v>
       </c>
       <c r="O15">
-        <v>0.4025722716944274</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="P15">
-        <v>0.4025722716944274</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="Q15">
-        <v>280.4280955434734</v>
+        <v>0.0002455388862222222</v>
       </c>
       <c r="R15">
-        <v>280.4280955434734</v>
+        <v>0.002209849976</v>
       </c>
       <c r="S15">
-        <v>0.07778495733211301</v>
+        <v>6.17075641348908E-08</v>
       </c>
       <c r="T15">
-        <v>0.07778495733211301</v>
+        <v>6.17075641348908E-08</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1405,60 +1408,60 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>3.52383677487363</v>
+        <v>0.005527333333333333</v>
       </c>
       <c r="H16">
-        <v>3.52383677487363</v>
+        <v>0.016582</v>
       </c>
       <c r="I16">
-        <v>0.1932198583988807</v>
+        <v>0.0002894137066834145</v>
       </c>
       <c r="J16">
-        <v>0.1932198583988807</v>
+        <v>0.0002894137066834146</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.3693758823782</v>
+        <v>60.95749799999999</v>
       </c>
       <c r="N16">
-        <v>60.3693758823782</v>
+        <v>182.872494</v>
       </c>
       <c r="O16">
-        <v>0.3053899953028406</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="P16">
-        <v>0.3053899953028406</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="Q16">
-        <v>212.7318268104935</v>
+        <v>0.336932410612</v>
       </c>
       <c r="R16">
-        <v>212.7318268104935</v>
+        <v>3.032391695508</v>
       </c>
       <c r="S16">
-        <v>0.05900741164884971</v>
+        <v>8.467611243518646E-05</v>
       </c>
       <c r="T16">
-        <v>0.05900741164884971</v>
+        <v>8.467611243518647E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1467,49 +1470,1289 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>3.52383677487363</v>
+        <v>0.005527333333333333</v>
       </c>
       <c r="H17">
-        <v>3.52383677487363</v>
+        <v>0.016582</v>
       </c>
       <c r="I17">
-        <v>0.1932198583988807</v>
+        <v>0.0002894137066834145</v>
       </c>
       <c r="J17">
-        <v>0.1932198583988807</v>
+        <v>0.0002894137066834146</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.35979924013071</v>
+        <v>82.22364800000001</v>
       </c>
       <c r="N17">
-        <v>1.35979924013071</v>
+        <v>246.670944</v>
       </c>
       <c r="O17">
-        <v>0.006878803656433702</v>
+        <v>0.3946493786955111</v>
       </c>
       <c r="P17">
-        <v>0.006878803656433702</v>
+        <v>0.394649378695511</v>
       </c>
       <c r="Q17">
-        <v>4.791710568817813</v>
+        <v>0.4544775103786667</v>
       </c>
       <c r="R17">
-        <v>4.791710568817813</v>
+        <v>4.090297593408001</v>
       </c>
       <c r="S17">
-        <v>0.001329121468449823</v>
+        <v>0.0001142169395285744</v>
       </c>
       <c r="T17">
-        <v>0.001329121468449823</v>
+        <v>0.0001142169395285744</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.005527333333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.016582</v>
+      </c>
+      <c r="I18">
+        <v>0.0002894137066834145</v>
+      </c>
+      <c r="J18">
+        <v>0.0002894137066834146</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>63.39570733333333</v>
+      </c>
+      <c r="N18">
+        <v>190.187122</v>
+      </c>
+      <c r="O18">
+        <v>0.3042807892817216</v>
+      </c>
+      <c r="P18">
+        <v>0.3042807892817216</v>
+      </c>
+      <c r="Q18">
+        <v>0.3504092063337777</v>
+      </c>
+      <c r="R18">
+        <v>3.153682857004</v>
+      </c>
+      <c r="S18">
+        <v>8.806303109857805E-05</v>
+      </c>
+      <c r="T18">
+        <v>8.806303109857805E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.005527333333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.016582</v>
+      </c>
+      <c r="I19">
+        <v>0.0002894137066834145</v>
+      </c>
+      <c r="J19">
+        <v>0.0002894137066834146</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.627997666666667</v>
+      </c>
+      <c r="N19">
+        <v>4.883993</v>
+      </c>
+      <c r="O19">
+        <v>0.007813911001221226</v>
+      </c>
+      <c r="P19">
+        <v>0.007813911001221226</v>
+      </c>
+      <c r="Q19">
+        <v>0.008998485769555555</v>
+      </c>
+      <c r="R19">
+        <v>0.080986371926</v>
+      </c>
+      <c r="S19">
+        <v>2.261452946557746E-06</v>
+      </c>
+      <c r="T19">
+        <v>2.261452946557746E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.6300623333333333</v>
+      </c>
+      <c r="H20">
+        <v>1.890187</v>
+      </c>
+      <c r="I20">
+        <v>0.03299035255064547</v>
+      </c>
+      <c r="J20">
+        <v>0.03299035255064547</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.09679866666666666</v>
+      </c>
+      <c r="N20">
+        <v>0.290396</v>
+      </c>
+      <c r="O20">
+        <v>0.0004646051906934836</v>
+      </c>
+      <c r="P20">
+        <v>0.0004646051906934836</v>
+      </c>
+      <c r="Q20">
+        <v>0.06098919378355554</v>
+      </c>
+      <c r="R20">
+        <v>0.5489027440519999</v>
+      </c>
+      <c r="S20">
+        <v>1.53274890378379E-05</v>
+      </c>
+      <c r="T20">
+        <v>1.532748903783789E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.6300623333333333</v>
+      </c>
+      <c r="H21">
+        <v>1.890187</v>
+      </c>
+      <c r="I21">
+        <v>0.03299035255064547</v>
+      </c>
+      <c r="J21">
+        <v>0.03299035255064547</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.04442266666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.133268</v>
+      </c>
+      <c r="O21">
+        <v>0.0002132157624531301</v>
+      </c>
+      <c r="P21">
+        <v>0.0002132157624531301</v>
+      </c>
+      <c r="Q21">
+        <v>0.02798904901288889</v>
+      </c>
+      <c r="R21">
+        <v>0.251901441116</v>
+      </c>
+      <c r="S21">
+        <v>7.034063172683441E-06</v>
+      </c>
+      <c r="T21">
+        <v>7.03406317268344E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.6300623333333333</v>
+      </c>
+      <c r="H22">
+        <v>1.890187</v>
+      </c>
+      <c r="I22">
+        <v>0.03299035255064547</v>
+      </c>
+      <c r="J22">
+        <v>0.03299035255064547</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>60.95749799999999</v>
+      </c>
+      <c r="N22">
+        <v>182.872494</v>
+      </c>
+      <c r="O22">
+        <v>0.2925781000683995</v>
+      </c>
+      <c r="P22">
+        <v>0.2925781000683995</v>
+      </c>
+      <c r="Q22">
+        <v>38.40702342404199</v>
+      </c>
+      <c r="R22">
+        <v>345.663210816378</v>
+      </c>
+      <c r="S22">
+        <v>0.009652254669854528</v>
+      </c>
+      <c r="T22">
+        <v>0.009652254669854528</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.6300623333333333</v>
+      </c>
+      <c r="H23">
+        <v>1.890187</v>
+      </c>
+      <c r="I23">
+        <v>0.03299035255064547</v>
+      </c>
+      <c r="J23">
+        <v>0.03299035255064547</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>82.22364800000001</v>
+      </c>
+      <c r="N23">
+        <v>246.670944</v>
+      </c>
+      <c r="O23">
+        <v>0.3946493786955111</v>
+      </c>
+      <c r="P23">
+        <v>0.394649378695511</v>
+      </c>
+      <c r="Q23">
+        <v>51.80602351405867</v>
+      </c>
+      <c r="R23">
+        <v>466.254211626528</v>
+      </c>
+      <c r="S23">
+        <v>0.01301962213705811</v>
+      </c>
+      <c r="T23">
+        <v>0.0130196221370581</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.6300623333333333</v>
+      </c>
+      <c r="H24">
+        <v>1.890187</v>
+      </c>
+      <c r="I24">
+        <v>0.03299035255064547</v>
+      </c>
+      <c r="J24">
+        <v>0.03299035255064547</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>63.39570733333333</v>
+      </c>
+      <c r="N24">
+        <v>190.187122</v>
+      </c>
+      <c r="O24">
+        <v>0.3042807892817216</v>
+      </c>
+      <c r="P24">
+        <v>0.3042807892817216</v>
+      </c>
+      <c r="Q24">
+        <v>39.9432472857571</v>
+      </c>
+      <c r="R24">
+        <v>359.489225571814</v>
+      </c>
+      <c r="S24">
+        <v>0.01003833051279266</v>
+      </c>
+      <c r="T24">
+        <v>0.01003833051279266</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.6300623333333333</v>
+      </c>
+      <c r="H25">
+        <v>1.890187</v>
+      </c>
+      <c r="I25">
+        <v>0.03299035255064547</v>
+      </c>
+      <c r="J25">
+        <v>0.03299035255064547</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.627997666666667</v>
+      </c>
+      <c r="N25">
+        <v>4.883993</v>
+      </c>
+      <c r="O25">
+        <v>0.007813911001221226</v>
+      </c>
+      <c r="P25">
+        <v>0.007813911001221226</v>
+      </c>
+      <c r="Q25">
+        <v>1.025740008521222</v>
+      </c>
+      <c r="R25">
+        <v>9.231660076691</v>
+      </c>
+      <c r="S25">
+        <v>0.0002577836787296554</v>
+      </c>
+      <c r="T25">
+        <v>0.0002577836787296554</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.068201</v>
+      </c>
+      <c r="H26">
+        <v>0.204603</v>
+      </c>
+      <c r="I26">
+        <v>0.00357103561865557</v>
+      </c>
+      <c r="J26">
+        <v>0.00357103561865557</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.09679866666666666</v>
+      </c>
+      <c r="N26">
+        <v>0.290396</v>
+      </c>
+      <c r="O26">
+        <v>0.0004646051906934836</v>
+      </c>
+      <c r="P26">
+        <v>0.0004646051906934836</v>
+      </c>
+      <c r="Q26">
+        <v>0.006601765865333333</v>
+      </c>
+      <c r="R26">
+        <v>0.05941589278799999</v>
+      </c>
+      <c r="S26">
+        <v>1.659121684578693E-06</v>
+      </c>
+      <c r="T26">
+        <v>1.659121684578693E-06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.068201</v>
+      </c>
+      <c r="H27">
+        <v>0.204603</v>
+      </c>
+      <c r="I27">
+        <v>0.00357103561865557</v>
+      </c>
+      <c r="J27">
+        <v>0.00357103561865557</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.04442266666666667</v>
+      </c>
+      <c r="N27">
+        <v>0.133268</v>
+      </c>
+      <c r="O27">
+        <v>0.0002132157624531301</v>
+      </c>
+      <c r="P27">
+        <v>0.0002132157624531301</v>
+      </c>
+      <c r="Q27">
+        <v>0.003029670289333333</v>
+      </c>
+      <c r="R27">
+        <v>0.027267032604</v>
+      </c>
+      <c r="S27">
+        <v>7.614010821789327E-07</v>
+      </c>
+      <c r="T27">
+        <v>7.614010821789326E-07</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.068201</v>
+      </c>
+      <c r="H28">
+        <v>0.204603</v>
+      </c>
+      <c r="I28">
+        <v>0.00357103561865557</v>
+      </c>
+      <c r="J28">
+        <v>0.00357103561865557</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>60.95749799999999</v>
+      </c>
+      <c r="N28">
+        <v>182.872494</v>
+      </c>
+      <c r="O28">
+        <v>0.2925781000683995</v>
+      </c>
+      <c r="P28">
+        <v>0.2925781000683995</v>
+      </c>
+      <c r="Q28">
+        <v>4.157362321098</v>
+      </c>
+      <c r="R28">
+        <v>37.416260889882</v>
+      </c>
+      <c r="S28">
+        <v>0.001044806816582828</v>
+      </c>
+      <c r="T28">
+        <v>0.001044806816582828</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.068201</v>
+      </c>
+      <c r="H29">
+        <v>0.204603</v>
+      </c>
+      <c r="I29">
+        <v>0.00357103561865557</v>
+      </c>
+      <c r="J29">
+        <v>0.00357103561865557</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>82.22364800000001</v>
+      </c>
+      <c r="N29">
+        <v>246.670944</v>
+      </c>
+      <c r="O29">
+        <v>0.3946493786955111</v>
+      </c>
+      <c r="P29">
+        <v>0.394649378695511</v>
+      </c>
+      <c r="Q29">
+        <v>5.607735017248</v>
+      </c>
+      <c r="R29">
+        <v>50.469615155232</v>
+      </c>
+      <c r="S29">
+        <v>0.001409306988201961</v>
+      </c>
+      <c r="T29">
+        <v>0.001409306988201961</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.068201</v>
+      </c>
+      <c r="H30">
+        <v>0.204603</v>
+      </c>
+      <c r="I30">
+        <v>0.00357103561865557</v>
+      </c>
+      <c r="J30">
+        <v>0.00357103561865557</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>63.39570733333333</v>
+      </c>
+      <c r="N30">
+        <v>190.187122</v>
+      </c>
+      <c r="O30">
+        <v>0.3042807892817216</v>
+      </c>
+      <c r="P30">
+        <v>0.3042807892817216</v>
+      </c>
+      <c r="Q30">
+        <v>4.323650635840666</v>
+      </c>
+      <c r="R30">
+        <v>38.91285572256599</v>
+      </c>
+      <c r="S30">
+        <v>0.001086597536597658</v>
+      </c>
+      <c r="T30">
+        <v>0.001086597536597658</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.068201</v>
+      </c>
+      <c r="H31">
+        <v>0.204603</v>
+      </c>
+      <c r="I31">
+        <v>0.00357103561865557</v>
+      </c>
+      <c r="J31">
+        <v>0.00357103561865557</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.627997666666667</v>
+      </c>
+      <c r="N31">
+        <v>4.883993</v>
+      </c>
+      <c r="O31">
+        <v>0.007813911001221226</v>
+      </c>
+      <c r="P31">
+        <v>0.007813911001221226</v>
+      </c>
+      <c r="Q31">
+        <v>0.1110310688643333</v>
+      </c>
+      <c r="R31">
+        <v>0.9992796197789999</v>
+      </c>
+      <c r="S31">
+        <v>2.790375450636561E-05</v>
+      </c>
+      <c r="T31">
+        <v>2.790375450636561E-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>3.783576333333334</v>
+      </c>
+      <c r="H32">
+        <v>11.350729</v>
+      </c>
+      <c r="I32">
+        <v>0.1981097909449359</v>
+      </c>
+      <c r="J32">
+        <v>0.1981097909449359</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M32">
+        <v>0.09679866666666666</v>
+      </c>
+      <c r="N32">
+        <v>0.290396</v>
+      </c>
+      <c r="O32">
+        <v>0.0004646051906934836</v>
+      </c>
+      <c r="P32">
+        <v>0.0004646051906934836</v>
+      </c>
+      <c r="Q32">
+        <v>0.3662451442982222</v>
+      </c>
+      <c r="R32">
+        <v>3.296206298684</v>
+      </c>
+      <c r="S32">
+        <v>9.204283720021812E-05</v>
+      </c>
+      <c r="T32">
+        <v>9.204283720021812E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>3.783576333333334</v>
+      </c>
+      <c r="H33">
+        <v>11.350729</v>
+      </c>
+      <c r="I33">
+        <v>0.1981097909449359</v>
+      </c>
+      <c r="J33">
+        <v>0.1981097909449359</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.04442266666666667</v>
+      </c>
+      <c r="N33">
+        <v>0.133268</v>
+      </c>
+      <c r="O33">
+        <v>0.0002132157624531301</v>
+      </c>
+      <c r="P33">
+        <v>0.0002132157624531301</v>
+      </c>
+      <c r="Q33">
+        <v>0.1680765502635556</v>
+      </c>
+      <c r="R33">
+        <v>1.512688952372</v>
+      </c>
+      <c r="S33">
+        <v>4.224013012575473E-05</v>
+      </c>
+      <c r="T33">
+        <v>4.224013012575473E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>3.783576333333334</v>
+      </c>
+      <c r="H34">
+        <v>11.350729</v>
+      </c>
+      <c r="I34">
+        <v>0.1981097909449359</v>
+      </c>
+      <c r="J34">
+        <v>0.1981097909449359</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>60.95749799999999</v>
+      </c>
+      <c r="N34">
+        <v>182.872494</v>
+      </c>
+      <c r="O34">
+        <v>0.2925781000683995</v>
+      </c>
+      <c r="P34">
+        <v>0.2925781000683995</v>
+      </c>
+      <c r="Q34">
+        <v>230.637346772014</v>
+      </c>
+      <c r="R34">
+        <v>2075.736120948126</v>
+      </c>
+      <c r="S34">
+        <v>0.05796258623961716</v>
+      </c>
+      <c r="T34">
+        <v>0.05796258623961716</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>3.783576333333334</v>
+      </c>
+      <c r="H35">
+        <v>11.350729</v>
+      </c>
+      <c r="I35">
+        <v>0.1981097909449359</v>
+      </c>
+      <c r="J35">
+        <v>0.1981097909449359</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>82.22364800000001</v>
+      </c>
+      <c r="N35">
+        <v>246.670944</v>
+      </c>
+      <c r="O35">
+        <v>0.3946493786955111</v>
+      </c>
+      <c r="P35">
+        <v>0.394649378695511</v>
+      </c>
+      <c r="Q35">
+        <v>311.0994486131307</v>
+      </c>
+      <c r="R35">
+        <v>2799.895037518177</v>
+      </c>
+      <c r="S35">
+        <v>0.07818390590991654</v>
+      </c>
+      <c r="T35">
+        <v>0.07818390590991654</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>3.783576333333334</v>
+      </c>
+      <c r="H36">
+        <v>11.350729</v>
+      </c>
+      <c r="I36">
+        <v>0.1981097909449359</v>
+      </c>
+      <c r="J36">
+        <v>0.1981097909449359</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>63.39570733333333</v>
+      </c>
+      <c r="N36">
+        <v>190.187122</v>
+      </c>
+      <c r="O36">
+        <v>0.3042807892817216</v>
+      </c>
+      <c r="P36">
+        <v>0.3042807892817216</v>
+      </c>
+      <c r="Q36">
+        <v>239.8624979013265</v>
+      </c>
+      <c r="R36">
+        <v>2158.762481111938</v>
+      </c>
+      <c r="S36">
+        <v>0.06028100355316197</v>
+      </c>
+      <c r="T36">
+        <v>0.06028100355316197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>3.783576333333334</v>
+      </c>
+      <c r="H37">
+        <v>11.350729</v>
+      </c>
+      <c r="I37">
+        <v>0.1981097909449359</v>
+      </c>
+      <c r="J37">
+        <v>0.1981097909449359</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.627997666666667</v>
+      </c>
+      <c r="N37">
+        <v>4.883993</v>
+      </c>
+      <c r="O37">
+        <v>0.007813911001221226</v>
+      </c>
+      <c r="P37">
+        <v>0.007813911001221226</v>
+      </c>
+      <c r="Q37">
+        <v>6.15965344232189</v>
+      </c>
+      <c r="R37">
+        <v>55.43688098089701</v>
+      </c>
+      <c r="S37">
+        <v>0.001548012274914272</v>
+      </c>
+      <c r="T37">
+        <v>0.001548012274914272</v>
       </c>
     </row>
   </sheetData>
